--- a/Apenator.xlsx
+++ b/Apenator.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wujieyan/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wujieyan/git/Apenator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{78670350-FB36-6048-9EDE-112F60BB488E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE8EDFC1-238E-524D-BA99-FB0F6FC5EDDA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="8200" windowWidth="25440" windowHeight="15020" xr2:uid="{B923F371-3C33-B243-B632-EE30ABCFC764}"/>
+    <workbookView xWindow="12840" yWindow="0" windowWidth="12760" windowHeight="16000" xr2:uid="{B923F371-3C33-B243-B632-EE30ABCFC764}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,14 +31,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="95">
   <si>
     <t>Name</t>
   </si>
   <si>
-    <t>Class</t>
-  </si>
-  <si>
     <t>BodySize</t>
   </si>
   <si>
@@ -72,15 +69,9 @@
     <t>Lemurs</t>
   </si>
   <si>
-    <t>Tarsies</t>
-  </si>
-  <si>
     <t>Squirrel Monkey</t>
   </si>
   <si>
-    <t>Capuchins</t>
-  </si>
-  <si>
     <t>Tamarins</t>
   </si>
   <si>
@@ -105,9 +96,6 @@
     <t>Gibbon</t>
   </si>
   <si>
-    <t>Geladas</t>
-  </si>
-  <si>
     <t>Langur</t>
   </si>
   <si>
@@ -120,9 +108,6 @@
     <t>Colobus</t>
   </si>
   <si>
-    <t>Surili</t>
-  </si>
-  <si>
     <t>DenCom</t>
   </si>
   <si>
@@ -159,21 +144,12 @@
     <t>Lorises</t>
   </si>
   <si>
-    <t>galagos</t>
-  </si>
-  <si>
     <t>nocturnal and diurnal</t>
   </si>
   <si>
     <t>Asia</t>
   </si>
   <si>
-    <t>partial</t>
-  </si>
-  <si>
-    <t>leaper</t>
-  </si>
-  <si>
     <t>ring</t>
   </si>
   <si>
@@ -192,18 +168,12 @@
     <t>haplorrhine platyrrhini</t>
   </si>
   <si>
-    <t>catarrhines have tube other have ring</t>
-  </si>
-  <si>
     <t>diurnal</t>
   </si>
   <si>
     <t>frugivorous</t>
   </si>
   <si>
-    <t>brachiator</t>
-  </si>
-  <si>
     <t>black</t>
   </si>
   <si>
@@ -241,16 +211,128 @@
   </si>
   <si>
     <t>bloned-red</t>
+  </si>
+  <si>
+    <t>Galagos</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>is polyyandrous</t>
+  </si>
+  <si>
+    <t>howler</t>
+  </si>
+  <si>
+    <t>leaper/arboreal</t>
+  </si>
+  <si>
+    <t>brachiator/arboreal</t>
+  </si>
+  <si>
+    <t>orange</t>
+  </si>
+  <si>
+    <t>tube</t>
+  </si>
+  <si>
+    <t>sexual dimorphism</t>
+  </si>
+  <si>
+    <t>have red face</t>
+  </si>
+  <si>
+    <t>cattlarrhine platyrrhini</t>
+  </si>
+  <si>
+    <t>knucke-walking/quadrupedal</t>
+  </si>
+  <si>
+    <t>large</t>
+  </si>
+  <si>
+    <t>hebivorous</t>
+  </si>
+  <si>
+    <t>arboreal and terrestrial/quadrupedally and brachiator</t>
+  </si>
+  <si>
+    <t>humans' the closest loving relative</t>
+  </si>
+  <si>
+    <t>cathemeral</t>
+  </si>
+  <si>
+    <t>various</t>
+  </si>
+  <si>
+    <t>bipedal/terrestrial</t>
+  </si>
+  <si>
+    <t>omnivorous</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>Gelada</t>
+  </si>
+  <si>
+    <t>Capuchin</t>
+  </si>
+  <si>
+    <t>Tarsier</t>
+  </si>
+  <si>
+    <t>brown</t>
+  </si>
+  <si>
+    <t>quadrupedal/terrestrial</t>
+  </si>
+  <si>
+    <t>graminivorous</t>
+  </si>
+  <si>
+    <t>Africa and Asia</t>
+  </si>
+  <si>
+    <t>quadrupedal/abroreal</t>
+  </si>
+  <si>
+    <t>folivorous</t>
+  </si>
+  <si>
+    <t>Africa and Asia and North America</t>
+  </si>
+  <si>
+    <t>be considered to be a invasice species</t>
+  </si>
+  <si>
+    <t>herbicorous</t>
+  </si>
+  <si>
+    <t>brachiator/abroreal</t>
+  </si>
+  <si>
+    <t>abroreal</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -276,15 +358,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -599,104 +676,108 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{720E0C43-B171-A348-8BEF-3864D9DACA7D}">
-  <dimension ref="A1:R23"/>
+  <dimension ref="A1:S27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="21.6640625" customWidth="1"/>
+    <col min="11" max="11" width="25.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s">
-        <v>30</v>
-      </c>
-      <c r="O1" t="s">
-        <v>38</v>
-      </c>
-      <c r="P1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F2">
         <v>2133</v>
       </c>
       <c r="G2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="I2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L2" t="s">
         <v>32</v>
       </c>
-      <c r="J2" t="s">
-        <v>36</v>
-      </c>
-      <c r="K2" t="s">
-        <v>46</v>
-      </c>
-      <c r="L2" t="s">
-        <v>37</v>
-      </c>
       <c r="M2">
         <v>1</v>
       </c>
@@ -706,47 +787,46 @@
       <c r="O2">
         <v>1</v>
       </c>
-      <c r="Q2" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="R2" s="3"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="P2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>83</v>
       </c>
       <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
         <v>39</v>
-      </c>
-      <c r="C3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E3" t="s">
-        <v>47</v>
       </c>
       <c r="F3">
         <v>2133</v>
       </c>
       <c r="G3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" t="s">
+        <v>50</v>
+      </c>
+      <c r="J3" t="s">
         <v>31</v>
       </c>
-      <c r="H3" t="s">
-        <v>40</v>
-      </c>
-      <c r="I3" t="s">
-        <v>60</v>
-      </c>
-      <c r="J3" t="s">
-        <v>36</v>
-      </c>
       <c r="K3" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="L3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="M3">
         <v>1</v>
@@ -757,48 +837,49 @@
       <c r="O3">
         <v>1</v>
       </c>
-      <c r="P3" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B4" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C4" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F4">
         <v>2133</v>
       </c>
       <c r="G4" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="H4" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="I4" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="J4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="K4" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="L4" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="M4">
         <v>1</v>
@@ -809,45 +890,46 @@
       <c r="O4">
         <v>0</v>
       </c>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="P4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C5" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F5">
         <v>2133</v>
       </c>
       <c r="G5" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="H5" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J5" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="K5" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="L5" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="M5">
         <v>1</v>
@@ -858,239 +940,819 @@
       <c r="O5">
         <v>0</v>
       </c>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="P5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>82</v>
       </c>
       <c r="B6" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C6" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F6">
         <v>2133</v>
       </c>
       <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>48</v>
+      </c>
+      <c r="I6" t="s">
+        <v>52</v>
+      </c>
+      <c r="J6" t="s">
+        <v>49</v>
+      </c>
+      <c r="K6" t="s">
+        <v>65</v>
+      </c>
+      <c r="L6" t="s">
+        <v>40</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="s">
         <v>54</v>
       </c>
-      <c r="H6" t="s">
-        <v>58</v>
-      </c>
-      <c r="I6" t="s">
-        <v>62</v>
-      </c>
-      <c r="J6" t="s">
-        <v>59</v>
-      </c>
-      <c r="K6" t="s">
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>56</v>
       </c>
-      <c r="L6" t="s">
-        <v>48</v>
-      </c>
-      <c r="M6">
-        <v>1</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>66</v>
-      </c>
       <c r="B7" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C7" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F7">
         <v>2133</v>
       </c>
       <c r="G7" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="H7" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="I7" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="J7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K7" t="s">
+        <v>65</v>
+      </c>
+      <c r="L7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>1</v>
+      </c>
+      <c r="Q7" t="s">
         <v>69</v>
       </c>
-      <c r="K7" t="s">
-        <v>56</v>
-      </c>
-      <c r="L7" t="s">
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8">
+        <v>2133</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
         <v>48</v>
       </c>
-      <c r="M7">
-        <v>1</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="I8" t="s">
+        <v>52</v>
+      </c>
+      <c r="J8" t="s">
+        <v>49</v>
+      </c>
+      <c r="K8" t="s">
+        <v>64</v>
+      </c>
+      <c r="L8" t="s">
+        <v>40</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9">
+        <v>2133</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>89</v>
+      </c>
+      <c r="I9" t="s">
+        <v>52</v>
+      </c>
+      <c r="K9" t="s">
+        <v>65</v>
+      </c>
+      <c r="L9" t="s">
+        <v>40</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>67</v>
+      </c>
+      <c r="F10">
+        <v>2123</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>50</v>
+      </c>
+      <c r="J10" t="s">
+        <v>66</v>
+      </c>
+      <c r="K10" t="s">
+        <v>65</v>
+      </c>
+      <c r="L10" t="s">
+        <v>32</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>1</v>
+      </c>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>16</v>
       </c>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="B11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>67</v>
+      </c>
+      <c r="F11">
+        <v>2123</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>73</v>
+      </c>
+      <c r="I11" t="s">
+        <v>27</v>
+      </c>
+      <c r="J11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K11" t="s">
+        <v>71</v>
+      </c>
+      <c r="L11" t="s">
+        <v>32</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>1</v>
+      </c>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>17</v>
       </c>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="B12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>67</v>
+      </c>
+      <c r="F12">
+        <v>2123</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>48</v>
+      </c>
+      <c r="I12" t="s">
+        <v>27</v>
+      </c>
+      <c r="J12" t="s">
+        <v>47</v>
+      </c>
+      <c r="K12" t="s">
+        <v>74</v>
+      </c>
+      <c r="L12" t="s">
+        <v>32</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>1</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>18</v>
       </c>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="B13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" t="s">
+        <v>72</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13">
+        <v>2123</v>
+      </c>
+      <c r="G13" t="s">
+        <v>76</v>
+      </c>
+      <c r="H13" t="s">
+        <v>48</v>
+      </c>
+      <c r="I13" t="s">
+        <v>77</v>
+      </c>
+      <c r="J13" t="s">
+        <v>31</v>
+      </c>
+      <c r="K13" t="s">
+        <v>78</v>
+      </c>
+      <c r="L13" t="s">
+        <v>32</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>19</v>
       </c>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="B14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>67</v>
+      </c>
+      <c r="F14">
+        <v>2123</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>79</v>
+      </c>
+      <c r="I14" t="s">
+        <v>27</v>
+      </c>
+      <c r="J14" t="s">
+        <v>47</v>
+      </c>
+      <c r="K14" t="s">
+        <v>71</v>
+      </c>
+      <c r="L14" t="s">
+        <v>32</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="B15" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>67</v>
+      </c>
+      <c r="F15">
+        <v>2123</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>50</v>
+      </c>
+      <c r="J15" t="s">
+        <v>31</v>
+      </c>
+      <c r="K15" t="s">
+        <v>65</v>
+      </c>
+      <c r="L15" t="s">
+        <v>32</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>81</v>
+      </c>
+      <c r="B16" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>67</v>
+      </c>
+      <c r="F16">
+        <v>2123</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>86</v>
+      </c>
+      <c r="I16" t="s">
+        <v>27</v>
+      </c>
+      <c r="J16" t="s">
+        <v>84</v>
+      </c>
+      <c r="K16" t="s">
+        <v>85</v>
+      </c>
+      <c r="L16" t="s">
+        <v>32</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="B17" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>67</v>
+      </c>
+      <c r="F17">
+        <v>2123</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>89</v>
+      </c>
+      <c r="I17" t="s">
+        <v>87</v>
+      </c>
+      <c r="J17" t="s">
+        <v>31</v>
+      </c>
+      <c r="K17" t="s">
+        <v>88</v>
+      </c>
+      <c r="L17" t="s">
+        <v>32</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="B18" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
+        <v>67</v>
+      </c>
+      <c r="F18">
+        <v>2123</v>
+      </c>
+      <c r="I18" t="s">
+        <v>27</v>
+      </c>
+      <c r="K18" t="s">
+        <v>88</v>
+      </c>
+      <c r="L18" t="s">
+        <v>32</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="B19" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19" t="s">
+        <v>67</v>
+      </c>
+      <c r="F19">
+        <v>2123</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
+        <v>90</v>
+      </c>
+      <c r="J19" t="s">
+        <v>84</v>
+      </c>
+      <c r="K19" t="s">
+        <v>93</v>
+      </c>
+      <c r="L19" t="s">
+        <v>32</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="B20" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20" t="s">
+        <v>67</v>
+      </c>
+      <c r="F20">
+        <v>2123</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>92</v>
+      </c>
+      <c r="I20" t="s">
+        <v>27</v>
+      </c>
+      <c r="J20" t="s">
+        <v>49</v>
+      </c>
+      <c r="K20" t="s">
+        <v>94</v>
+      </c>
+      <c r="L20" t="s">
+        <v>32</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" t="s">
+        <v>39</v>
+      </c>
+      <c r="G21" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="H21" t="s">
+        <v>31</v>
+      </c>
+      <c r="I21" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="C22" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>41</v>
-      </c>
-      <c r="B22" t="s">
-        <v>33</v>
-      </c>
-      <c r="C22" t="s">
-        <v>34</v>
-      </c>
       <c r="E22" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G22" t="s">
+        <v>26</v>
+      </c>
+      <c r="H22" t="s">
         <v>31</v>
       </c>
-      <c r="H22" t="s">
-        <v>36</v>
-      </c>
       <c r="I22" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23" t="s">
-        <v>33</v>
-      </c>
-      <c r="C23" t="s">
-        <v>34</v>
-      </c>
-      <c r="E23" t="s">
-        <v>47</v>
-      </c>
-      <c r="G23" t="s">
-        <v>31</v>
-      </c>
-      <c r="H23" t="s">
-        <v>36</v>
-      </c>
-      <c r="I23" t="s">
-        <v>44</v>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="C27" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="Q2:R9"/>
-    <mergeCell ref="Q10:R10"/>
+  <mergeCells count="2">
+    <mergeCell ref="R11:S11"/>
+    <mergeCell ref="R10:S10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Apenator.xlsx
+++ b/Apenator.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wujieyan/git/Apenator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE8EDFC1-238E-524D-BA99-FB0F6FC5EDDA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{263E10E9-BCC9-1C42-9EF4-37EB16F54849}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12840" yWindow="0" windowWidth="12760" windowHeight="16000" xr2:uid="{B923F371-3C33-B243-B632-EE30ABCFC764}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="95">
   <si>
     <t>Name</t>
   </si>
@@ -66,9 +66,6 @@
     <t>Tail</t>
   </si>
   <si>
-    <t>Lemurs</t>
-  </si>
-  <si>
     <t>Squirrel Monkey</t>
   </si>
   <si>
@@ -141,9 +138,6 @@
     <t>carnivorous</t>
   </si>
   <si>
-    <t>Lorises</t>
-  </si>
-  <si>
     <t>nocturnal and diurnal</t>
   </si>
   <si>
@@ -177,9 +171,6 @@
     <t>black</t>
   </si>
   <si>
-    <t>omnivores</t>
-  </si>
-  <si>
     <t>black-white</t>
   </si>
   <si>
@@ -213,9 +204,6 @@
     <t>bloned-red</t>
   </si>
   <si>
-    <t>Galagos</t>
-  </si>
-  <si>
     <t>category</t>
   </si>
   <si>
@@ -316,6 +304,18 @@
   </si>
   <si>
     <t>abroreal</t>
+  </si>
+  <si>
+    <t>Loris</t>
+  </si>
+  <si>
+    <t>gray-brown</t>
+  </si>
+  <si>
+    <t>Lemur</t>
+  </si>
+  <si>
+    <t>Galago</t>
   </si>
 </sst>
 </file>
@@ -360,8 +360,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -679,7 +679,7 @@
   <dimension ref="A1:S27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -693,7 +693,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -702,7 +702,7 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
@@ -729,54 +729,54 @@
         <v>10</v>
       </c>
       <c r="N1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="Q1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>93</v>
       </c>
       <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
         <v>28</v>
       </c>
-      <c r="C2" t="s">
-        <v>29</v>
-      </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F2">
         <v>2133</v>
       </c>
       <c r="G2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="M2">
         <v>1</v>
@@ -793,40 +793,40 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F3">
         <v>2133</v>
       </c>
       <c r="G3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L3" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="M3">
         <v>1</v>
@@ -841,45 +841,45 @@
         <v>0</v>
       </c>
       <c r="Q3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F4">
         <v>2133</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="L4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M4">
         <v>1</v>
@@ -896,40 +896,40 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F5">
         <v>2133</v>
       </c>
       <c r="G5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H5" t="s">
+        <v>75</v>
+      </c>
+      <c r="I5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J5" t="s">
         <v>45</v>
       </c>
-      <c r="H5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I5" t="s">
-        <v>43</v>
-      </c>
-      <c r="J5" t="s">
-        <v>47</v>
-      </c>
       <c r="K5" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="L5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M5">
         <v>1</v>
@@ -946,40 +946,40 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F6">
         <v>2133</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H6" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="I6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="K6" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="L6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M6">
         <v>1</v>
@@ -994,98 +994,98 @@
         <v>0</v>
       </c>
       <c r="Q6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F7">
         <v>2133</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K7" t="s">
+        <v>61</v>
+      </c>
+      <c r="L7" t="s">
+        <v>38</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>1</v>
+      </c>
+      <c r="Q7" t="s">
         <v>65</v>
-      </c>
-      <c r="L7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M7">
-        <v>1</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <v>1</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F8">
         <v>2133</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H8" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="I8" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J8" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="K8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M8">
         <v>1</v>
@@ -1100,42 +1100,42 @@
         <v>0</v>
       </c>
       <c r="Q8" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F9">
         <v>2133</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H9" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="I9" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="K9" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="L9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M9">
         <v>1</v>
@@ -1150,45 +1150,45 @@
         <v>0</v>
       </c>
       <c r="Q9" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C10" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F10">
         <v>2123</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I10" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J10" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="K10" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="L10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -1202,46 +1202,46 @@
       <c r="P10">
         <v>1</v>
       </c>
-      <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C11" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F11">
         <v>2123</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H11" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="I11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J11" t="s">
+        <v>30</v>
+      </c>
+      <c r="K11" t="s">
+        <v>67</v>
+      </c>
+      <c r="L11" t="s">
         <v>31</v>
       </c>
-      <c r="K11" t="s">
-        <v>71</v>
-      </c>
-      <c r="L11" t="s">
-        <v>32</v>
-      </c>
       <c r="M11">
         <v>0</v>
       </c>
@@ -1254,45 +1254,45 @@
       <c r="P11">
         <v>1</v>
       </c>
-      <c r="R11" s="1"/>
-      <c r="S11" s="1"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C12" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F12">
         <v>2123</v>
       </c>
       <c r="G12" t="s">
+        <v>43</v>
+      </c>
+      <c r="H12" t="s">
+        <v>75</v>
+      </c>
+      <c r="I12" t="s">
+        <v>26</v>
+      </c>
+      <c r="J12" t="s">
         <v>45</v>
       </c>
-      <c r="H12" t="s">
-        <v>48</v>
-      </c>
-      <c r="I12" t="s">
-        <v>27</v>
-      </c>
-      <c r="J12" t="s">
-        <v>47</v>
-      </c>
       <c r="K12" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="L12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1307,45 +1307,45 @@
         <v>1</v>
       </c>
       <c r="Q12" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C13" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F13">
         <v>2123</v>
       </c>
       <c r="G13" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H13" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="I13" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="J13" t="s">
+        <v>30</v>
+      </c>
+      <c r="K13" t="s">
+        <v>74</v>
+      </c>
+      <c r="L13" t="s">
         <v>31</v>
-      </c>
-      <c r="K13" t="s">
-        <v>78</v>
-      </c>
-      <c r="L13" t="s">
-        <v>32</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -1362,40 +1362,40 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C14" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F14">
         <v>2123</v>
       </c>
       <c r="G14" t="s">
+        <v>43</v>
+      </c>
+      <c r="H14" t="s">
+        <v>75</v>
+      </c>
+      <c r="I14" t="s">
+        <v>26</v>
+      </c>
+      <c r="J14" t="s">
         <v>45</v>
       </c>
-      <c r="H14" t="s">
-        <v>79</v>
-      </c>
-      <c r="I14" t="s">
-        <v>27</v>
-      </c>
-      <c r="J14" t="s">
-        <v>47</v>
-      </c>
       <c r="K14" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="L14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1412,40 +1412,40 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C15" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F15">
         <v>2123</v>
       </c>
       <c r="G15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H15" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I15" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J15" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" t="s">
+        <v>61</v>
+      </c>
+      <c r="L15" t="s">
         <v>31</v>
-      </c>
-      <c r="K15" t="s">
-        <v>65</v>
-      </c>
-      <c r="L15" t="s">
-        <v>32</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1462,40 +1462,40 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B16" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C16" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F16">
         <v>2123</v>
       </c>
       <c r="G16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H16" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="I16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J16" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="K16" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="L16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M16">
         <v>1</v>
@@ -1512,40 +1512,40 @@
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>70</v>
+        <v>20</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="C17" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F17">
         <v>2123</v>
       </c>
       <c r="G17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H17" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="I17" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="J17" t="s">
+        <v>30</v>
+      </c>
+      <c r="K17" t="s">
+        <v>84</v>
+      </c>
+      <c r="L17" t="s">
         <v>31</v>
-      </c>
-      <c r="K17" t="s">
-        <v>88</v>
-      </c>
-      <c r="L17" t="s">
-        <v>32</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1562,31 +1562,31 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>70</v>
+        <v>21</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="C18" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D18">
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F18">
         <v>2123</v>
       </c>
       <c r="I18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K18" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="L18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M18">
         <v>1</v>
@@ -1600,40 +1600,40 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D19">
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F19">
         <v>2123</v>
       </c>
       <c r="G19" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H19" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I19" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="J19" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="K19" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="L19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M19">
         <v>1</v>
@@ -1645,45 +1645,45 @@
         <v>0</v>
       </c>
       <c r="Q19" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D20">
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F20">
         <v>2123</v>
       </c>
       <c r="G20" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H20" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="I20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J20" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="K20" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="L20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M20">
         <v>1</v>
@@ -1700,53 +1700,107 @@
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>36</v>
+        <v>91</v>
       </c>
       <c r="B21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" t="s">
         <v>28</v>
       </c>
-      <c r="C21" t="s">
-        <v>29</v>
+      <c r="D21">
+        <v>0</v>
       </c>
       <c r="E21" t="s">
-        <v>39</v>
+        <v>37</v>
+      </c>
+      <c r="F21">
+        <v>2133</v>
       </c>
       <c r="G21" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="H21" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="I21" t="s">
-        <v>27</v>
+        <v>47</v>
+      </c>
+      <c r="J21" t="s">
+        <v>92</v>
+      </c>
+      <c r="K21" t="s">
+        <v>60</v>
+      </c>
+      <c r="L21" t="s">
+        <v>38</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>1</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>94</v>
+      </c>
+      <c r="B22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22" t="s">
+        <v>37</v>
+      </c>
+      <c r="F22">
+        <v>2133</v>
+      </c>
+      <c r="G22" t="s">
+        <v>25</v>
+      </c>
+      <c r="H22" t="s">
+        <v>75</v>
+      </c>
+      <c r="I22" t="s">
+        <v>36</v>
+      </c>
+      <c r="J22" t="s">
+        <v>80</v>
+      </c>
+      <c r="K22" t="s">
         <v>60</v>
       </c>
-      <c r="B22" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" t="s">
-        <v>29</v>
-      </c>
-      <c r="E22" t="s">
-        <v>39</v>
-      </c>
-      <c r="G22" t="s">
-        <v>26</v>
-      </c>
-      <c r="H22" t="s">
-        <v>31</v>
-      </c>
-      <c r="I22" t="s">
+      <c r="L22" t="s">
         <v>38</v>
+      </c>
+      <c r="M22">
+        <v>1</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>1</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C27" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
